--- a/src/DataSheet/GherkinStepsRepo.xlsx
+++ b/src/DataSheet/GherkinStepsRepo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator\src\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator-Final\src\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
   <si>
-    <t xml:space="preserve">Given Login is Valid User Name and Password 
+    <t xml:space="preserve">Given Login is Valid User Name and Password
 </t>
   </si>
   <si>
@@ -473,10 +473,13 @@
   <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="141.28515625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
